--- a/metadata/desi/todo/Purdue TTD (DESI).xlsx
+++ b/metadata/desi/todo/Purdue TTD (DESI).xlsx
@@ -13,8 +13,8 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$79</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$14</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,30 +436,20 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Electrospray deposition</t>
+          <t>NanoZoomer S210</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>MS1</t>
+          <t>In-House</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>NanoZoomer S210</t>
+          <t>2,5-DHB (2,5-Dihydroxybenzoic acid)</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
-        <is>
-          <t>In-House</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>2,5-DHB (2,5-Dihydroxybenzoic acid)</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
         <is>
           <t>hour</t>
         </is>
@@ -478,25 +468,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MS3</t>
+          <t>Leica Biosystems</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>NEDC (N-(1-naphthyl) ethylenediamine dihydrochloride)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>Leica Biosystems</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NEDC (N-(1-naphthyl) ethylenediamine dihydrochloride)</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
         <is>
           <t>month</t>
         </is>
@@ -510,30 +490,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sublimation</t>
+          <t>Sublimator</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MS2</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sublimator</t>
+          <t>SA (sinapic acid)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>SA (sinapic acid)</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
         <is>
           <t>year</t>
         </is>
@@ -547,25 +517,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Robotic spotting</t>
+          <t>EVOS M7000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Thermo Fisher Scientific</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>EVOS M7000</t>
+          <t>DAN (1,5-diaminonapthalene)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>Thermo Fisher Scientific</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>DAN (1,5-diaminonapthalene)</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
@@ -579,25 +544,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Robotic spraying</t>
+          <t>Chromium Controller</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Roche Diagnostics</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Chromium Controller</t>
+          <t>2,5-DHA (2,5-dihydroxyacetophenone)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
-        <is>
-          <t>Roche Diagnostics</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2,5-DHA (2,5-dihydroxyacetophenone)</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
         <is>
           <t>minute</t>
         </is>
@@ -609,126 +569,126 @@
           <t>FAIMS</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>NanoZoomer S360</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>HTX Technologies</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NanoZoomer S360</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>HTX Technologies</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>9-AA (9-aminoacridine)</t>
         </is>
       </c>
     </row>
     <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NanoZoomer S60</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10x Genomics</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NanoZoomer S60</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>10x Genomics</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>CHCA (alpha-cyano-4-hydroxy-cinnamic acid)</t>
         </is>
       </c>
     </row>
     <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chromium X</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Hamamatsu</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Chromium X</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Hamamatsu</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>DMACA (4-(dimethylamino)cinnamic acid)</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>AutoStainer XL</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>SunChrom</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>Visium CytAssist</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="D11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>SunCollect Sprayer</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>M3+ Sprayer</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Discovery Ultra</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>ST5020 Multistainer</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Chromium iX</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>Chromium Connect</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="D17" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>M5 Sprayer</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="D18" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>TM-Sprayer</t>
         </is>
@@ -745,7 +705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,7 +767,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -826,14 +786,10 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+          <t>preparation_instrument_vendor</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
@@ -849,10 +805,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>preparation_matrix</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
@@ -863,38 +823,38 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HBM239.SLWB.784</t>
+          <t>HBM243.BDPL.477</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM239.SLWB.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM243.BDPL.477</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HBM239.SLWB.784</t>
+          <t>HBM243.BDPL.477</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>preparation_matrix</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM239.SLWB.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM243.BDPL.477</t>
         </is>
       </c>
     </row>
@@ -906,7 +866,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>preparation_instrument_vendor</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -925,10 +885,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>preparation_matrix</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
@@ -939,30 +903,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HBM243.BDPL.477</t>
+          <t>HBM342.ZLZF.938</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM243.BDPL.477</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM342.ZLZF.938</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HBM243.BDPL.477</t>
+          <t>HBM342.ZLZF.938</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -974,14 +934,14 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM243.BDPL.477</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM342.ZLZF.938</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HBM243.BDPL.477</t>
+          <t>HBM342.ZLZF.938</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -993,14 +953,14 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM243.BDPL.477</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM342.ZLZF.938</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HBM243.BDPL.477</t>
+          <t>HBM342.ZLZF.938</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1008,18 +968,22 @@
           <t>preparation_matrix</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM243.BDPL.477</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM342.ZLZF.938</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HBM342.ZLZF.938</t>
+          <t>HBM478.THJF.229</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1031,174 +995,174 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM342.ZLZF.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM478.THJF.229</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HBM342.ZLZF.938</t>
+          <t>HBM478.THJF.229</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM342.ZLZF.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM478.THJF.229</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HBM342.ZLZF.938</t>
+          <t>HBM478.THJF.229</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+          <t>preparation_instrument_vendor</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM342.ZLZF.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM478.THJF.229</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBM342.ZLZF.938</t>
+          <t>HBM478.THJF.229</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>preparation_matrix</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM342.ZLZF.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM478.THJF.229</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM342.ZLZF.938</t>
+          <t>HBM485.PCJS.597</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM342.ZLZF.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM485.PCJS.597</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HBM342.ZLZF.938</t>
+          <t>HBM485.PCJS.597</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>preparation_matrix</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM342.ZLZF.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM485.PCJS.597</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBM478.THJF.229</t>
+          <t>HBM485.PCJS.597</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>preparation_instrument_vendor</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM478.THJF.229</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM485.PCJS.597</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HBM478.THJF.229</t>
+          <t>HBM485.PCJS.597</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>preparation_matrix</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM478.THJF.229</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM485.PCJS.597</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HBM478.THJF.229</t>
+          <t>HBM525.PDZH.487</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM478.THJF.229</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM525.PDZH.487</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM478.THJF.229</t>
+          <t>HBM525.PDZH.487</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1210,14 +1174,14 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM478.THJF.229</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM525.PDZH.487</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM478.THJF.229</t>
+          <t>HBM525.PDZH.487</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1229,14 +1193,14 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM478.THJF.229</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM525.PDZH.487</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM478.THJF.229</t>
+          <t>HBM525.PDZH.487</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1244,18 +1208,22 @@
           <t>preparation_matrix</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM478.THJF.229</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM525.PDZH.487</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM485.PCJS.597</t>
+          <t>HBM527.XRVT.275</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1267,174 +1235,174 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM485.PCJS.597</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM527.XRVT.275</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM485.PCJS.597</t>
+          <t>HBM527.XRVT.275</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM485.PCJS.597</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM527.XRVT.275</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBM485.PCJS.597</t>
+          <t>HBM527.XRVT.275</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+          <t>preparation_instrument_vendor</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM485.PCJS.597</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM527.XRVT.275</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HBM485.PCJS.597</t>
+          <t>HBM527.XRVT.275</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
+          <t>preparation_matrix</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM485.PCJS.597</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM527.XRVT.275</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HBM485.PCJS.597</t>
+          <t>HBM594.XWXP.395</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM485.PCJS.597</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM594.XWXP.395</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM485.PCJS.597</t>
+          <t>HBM594.XWXP.395</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>preparation_matrix</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM485.PCJS.597</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM594.XWXP.395</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM525.PDZH.487</t>
+          <t>HBM594.XWXP.395</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>preparation_instrument_vendor</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM525.PDZH.487</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM594.XWXP.395</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM525.PDZH.487</t>
+          <t>HBM594.XWXP.395</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>preparation_matrix</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM525.PDZH.487</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM594.XWXP.395</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HBM525.PDZH.487</t>
+          <t>HBM624.RNHQ.685</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM525.PDZH.487</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM624.RNHQ.685</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HBM525.PDZH.487</t>
+          <t>HBM624.RNHQ.685</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1446,14 +1414,14 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM525.PDZH.487</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM624.RNHQ.685</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM525.PDZH.487</t>
+          <t>HBM624.RNHQ.685</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1465,14 +1433,14 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM525.PDZH.487</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM624.RNHQ.685</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM525.PDZH.487</t>
+          <t>HBM624.RNHQ.685</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1480,18 +1448,22 @@
           <t>preparation_matrix</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM525.PDZH.487</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM624.RNHQ.685</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM527.XRVT.275</t>
+          <t>HBM624.SZDL.673</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1503,174 +1475,174 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM527.XRVT.275</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM624.SZDL.673</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM527.XRVT.275</t>
+          <t>HBM624.SZDL.673</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM527.XRVT.275</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM624.SZDL.673</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HBM527.XRVT.275</t>
+          <t>HBM624.SZDL.673</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+          <t>preparation_instrument_vendor</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM527.XRVT.275</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM624.SZDL.673</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HBM527.XRVT.275</t>
+          <t>HBM624.SZDL.673</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>preparation_matrix</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM527.XRVT.275</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM624.SZDL.673</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HBM527.XRVT.275</t>
+          <t>HBM747.JPVZ.396</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM527.XRVT.275</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.JPVZ.396</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HBM527.XRVT.275</t>
+          <t>HBM747.JPVZ.396</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>preparation_matrix</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM527.XRVT.275</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.JPVZ.396</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM594.XWXP.395</t>
+          <t>HBM747.JPVZ.396</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
+          <t>preparation_instrument_vendor</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM594.XWXP.395</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.JPVZ.396</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HBM594.XWXP.395</t>
+          <t>HBM747.JPVZ.396</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
+          <t>preparation_matrix</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM594.XWXP.395</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.JPVZ.396</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HBM594.XWXP.395</t>
+          <t>HBM964.VLBF.455</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+          <t>ion_mobility</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM594.XWXP.395</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM964.VLBF.455</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBM594.XWXP.395</t>
+          <t>HBM964.VLBF.455</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1682,14 +1654,14 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM594.XWXP.395</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM964.VLBF.455</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM594.XWXP.395</t>
+          <t>HBM964.VLBF.455</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1701,14 +1673,14 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM594.XWXP.395</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM964.VLBF.455</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HBM594.XWXP.395</t>
+          <t>HBM964.VLBF.455</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1716,18 +1688,22 @@
           <t>preparation_matrix</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM594.XWXP.395</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM964.VLBF.455</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HBM624.RNHQ.685</t>
+          <t>HBM973.GHCH.264</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1739,601 +1715,85 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.RNHQ.685</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM973.GHCH.264</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HBM624.RNHQ.685</t>
+          <t>HBM973.GHCH.264</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>preparation_instrument_model</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.RNHQ.685</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM973.GHCH.264</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HBM624.RNHQ.685</t>
+          <t>HBM973.GHCH.264</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
+          <t>preparation_instrument_vendor</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.RNHQ.685</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM973.GHCH.264</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HBM624.RNHQ.685</t>
+          <t>HBM973.GHCH.264</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
+          <t>preparation_matrix</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.RNHQ.685</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>HBM624.RNHQ.685</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.RNHQ.685</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>HBM624.RNHQ.685</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>preparation_matrix</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.RNHQ.685</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>HBM624.SZDL.673</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.SZDL.673</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>HBM624.SZDL.673</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.SZDL.673</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>HBM624.SZDL.673</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.SZDL.673</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>HBM624.SZDL.673</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.SZDL.673</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>HBM624.SZDL.673</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.SZDL.673</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>HBM624.SZDL.673</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>preparation_matrix</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.SZDL.673</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>HBM747.JPVZ.396</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.JPVZ.396</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>HBM747.JPVZ.396</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.JPVZ.396</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>HBM747.JPVZ.396</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.JPVZ.396</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>HBM747.JPVZ.396</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.JPVZ.396</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>HBM747.JPVZ.396</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.JPVZ.396</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>HBM747.JPVZ.396</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>preparation_matrix</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.JPVZ.396</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>HBM964.VLBF.455</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM964.VLBF.455</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>HBM964.VLBF.455</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM964.VLBF.455</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>HBM964.VLBF.455</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM964.VLBF.455</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>HBM964.VLBF.455</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM964.VLBF.455</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>HBM964.VLBF.455</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM964.VLBF.455</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>HBM964.VLBF.455</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>preparation_matrix</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM964.VLBF.455</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>HBM973.GHCH.264</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM973.GHCH.264</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>HBM973.GHCH.264</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM973.GHCH.264</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>HBM973.GHCH.264</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM973.GHCH.264</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>HBM973.GHCH.264</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM973.GHCH.264</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>HBM973.GHCH.264</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM973.GHCH.264</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>HBM973.GHCH.264</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>preparation_matrix</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM973.GHCH.264</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E79"/>
-  <dataValidations count="6">
-    <dataValidation sqref="D2 D8 D14 D20 D26 D32 D38 D44 D50 D56 D62 D68 D74" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E53"/>
+  <dataValidations count="4">
+    <dataValidation sqref="D2 D6 D10 D14 D18 D22 D26 D30 D34 D38 D42 D46 D50" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D9 D15 D21 D27 D33 D39 D45 D51 D57 D63 D69 D75" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$5</formula1>
+    <dataValidation sqref="D3 D7 D11 D15 D19 D23 D27 D31 D35 D39 D43 D47 D51" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$B$1:$B$18</formula1>
     </dataValidation>
-    <dataValidation sqref="D4 D10 D16 D22 D28 D34 D40 D46 D52 D58 D64 D70 D76" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$3</formula1>
+    <dataValidation sqref="D4 D8 D12 D16 D20 D24 D28 D32 D36 D40 D44 D48 D52" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$C$1:$C$9</formula1>
     </dataValidation>
-    <dataValidation sqref="D5 D11 D17 D23 D29 D35 D41 D47 D53 D59 D65 D71 D77" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$18</formula1>
-    </dataValidation>
-    <dataValidation sqref="D6 D12 D18 D24 D30 D36 D42 D48 D54 D60 D66 D72 D78" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$9</formula1>
-    </dataValidation>
-    <dataValidation sqref="D7 D13 D19 D25 D31 D37 D43 D49 D55 D61 D67 D73 D79" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$F$1:$F$8</formula1>
+    <dataValidation sqref="D5 D9 D13 D17 D21 D25 D29 D33 D37 D41 D45 D49 D53" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$D$1:$D$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2346,7 +1806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2420,7 +1880,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>analysis_protocol_doi</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -2438,7 +1898,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -2451,18 +1911,18 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HBM243.BDPL.477</t>
+          <t>HBM342.ZLZF.938</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM243.BDPL.477</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM342.ZLZF.938</t>
         </is>
       </c>
     </row>
@@ -2474,7 +1934,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>analysis_protocol_doi</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -2487,7 +1947,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HBM342.ZLZF.938</t>
+          <t>HBM478.THJF.229</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -2498,14 +1958,14 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM342.ZLZF.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM478.THJF.229</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HBM342.ZLZF.938</t>
+          <t>HBM478.THJF.229</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2516,14 +1976,14 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM342.ZLZF.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM478.THJF.229</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HBM478.THJF.229</t>
+          <t>HBM485.PCJS.597</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2534,14 +1994,14 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM478.THJF.229</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM485.PCJS.597</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HBM478.THJF.229</t>
+          <t>HBM485.PCJS.597</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2552,14 +2012,14 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM478.THJF.229</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM485.PCJS.597</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HBM485.PCJS.597</t>
+          <t>HBM525.PDZH.487</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2570,14 +2030,14 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM485.PCJS.597</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM525.PDZH.487</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HBM485.PCJS.597</t>
+          <t>HBM525.PDZH.487</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2588,14 +2048,14 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM485.PCJS.597</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM525.PDZH.487</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HBM525.PDZH.487</t>
+          <t>HBM527.XRVT.275</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2606,14 +2066,14 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM525.PDZH.487</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM527.XRVT.275</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HBM525.PDZH.487</t>
+          <t>HBM527.XRVT.275</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2624,14 +2084,14 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM525.PDZH.487</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM527.XRVT.275</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HBM527.XRVT.275</t>
+          <t>HBM594.XWXP.395</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2642,14 +2102,14 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM527.XRVT.275</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM594.XWXP.395</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBM527.XRVT.275</t>
+          <t>HBM594.XWXP.395</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2660,14 +2120,14 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM527.XRVT.275</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM594.XWXP.395</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM594.XWXP.395</t>
+          <t>HBM624.RNHQ.685</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2678,14 +2138,14 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM594.XWXP.395</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM624.RNHQ.685</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HBM594.XWXP.395</t>
+          <t>HBM624.RNHQ.685</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2696,14 +2156,14 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM594.XWXP.395</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM624.RNHQ.685</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBM624.RNHQ.685</t>
+          <t>HBM624.SZDL.673</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2714,14 +2174,14 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.RNHQ.685</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM624.SZDL.673</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HBM624.RNHQ.685</t>
+          <t>HBM624.SZDL.673</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2732,86 +2192,86 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.RNHQ.685</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM624.SZDL.673</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HBM624.SZDL.673</t>
+          <t>HBM747.JPVZ.396</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>analysis_protocol_doi</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.SZDL.673</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.JPVZ.396</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM624.SZDL.673</t>
+          <t>HBM747.JPVZ.396</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>source_storage_duration_unit</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.SZDL.673</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.JPVZ.396</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM624.SZDL.673</t>
+          <t>HBM964.VLBF.455</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>source_storage_duration_value</t>
+          <t>source_storage_duration_unit</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.SZDL.673</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM964.VLBF.455</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM747.JPVZ.396</t>
+          <t>HBM964.VLBF.455</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>analysis_protocol_doi</t>
+          <t>source_storage_duration_value</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.JPVZ.396</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM964.VLBF.455</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM747.JPVZ.396</t>
+          <t>HBM973.GHCH.264</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2822,14 +2282,14 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.JPVZ.396</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM973.GHCH.264</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM747.JPVZ.396</t>
+          <t>HBM973.GHCH.264</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2840,87 +2300,15 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.JPVZ.396</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>HBM964.VLBF.455</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM964.VLBF.455</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>HBM964.VLBF.455</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM964.VLBF.455</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>HBM973.GHCH.264</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>source_storage_duration_unit</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM973.GHCH.264</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>HBM973.GHCH.264</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>source_storage_duration_value</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM973.GHCH.264</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D31"/>
+  <autoFilter ref="A1:D27"/>
   <dataValidations count="1">
-    <dataValidation sqref="C2 C5 C8 C10 C12 C14 C16 C18 C20 C23 C26 C28 C30" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$G$1:$G$5</formula1>
+    <dataValidation sqref="C2 C4 C6 C8 C10 C12 C14 C16 C18 C20 C22 C24 C26" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$E$1:$E$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/desi/todo/Purdue TTD (DESI).xlsx
+++ b/metadata/desi/todo/Purdue TTD (DESI).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$14</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +436,10 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>NanoZoomer S210</t>
+          <t>2,5-DHB (2,5-Dihydroxybenzoic acid)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
-        <is>
-          <t>In-House</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>2,5-DHB (2,5-Dihydroxybenzoic acid)</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
         <is>
           <t>hour</t>
         </is>
@@ -463,20 +453,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>NEDC (N-(1-naphthyl) ethylenediamine dihydrochloride)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>Leica Biosystems</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>NEDC (N-(1-naphthyl) ethylenediamine dihydrochloride)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>month</t>
         </is>
@@ -490,20 +470,10 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sublimator</t>
+          <t>SA (sinapic acid)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SA (sinapic acid)</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>year</t>
         </is>
@@ -517,20 +487,10 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>EVOS M7000</t>
+          <t>DAN (1,5-diaminonapthalene)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
-        <is>
-          <t>Thermo Fisher Scientific</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>DAN (1,5-diaminonapthalene)</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
@@ -544,20 +504,10 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Chromium Controller</t>
+          <t>2,5-DHA (2,5-dihydroxyacetophenone)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
-        <is>
-          <t>Roche Diagnostics</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2,5-DHA (2,5-dihydroxyacetophenone)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>minute</t>
         </is>
@@ -571,16 +521,6 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NanoZoomer S360</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>HTX Technologies</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>9-AA (9-aminoacridine)</t>
         </is>
       </c>
@@ -588,16 +528,6 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>NanoZoomer S60</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10x Genomics</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>CHCA (alpha-cyano-4-hydroxy-cinnamic acid)</t>
         </is>
       </c>
@@ -605,92 +535,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chromium X</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Hamamatsu</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>DMACA (4-(dimethylamino)cinnamic acid)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>AutoStainer XL</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>SunChrom</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Visium CytAssist</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>SunCollect Sprayer</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>M3+ Sprayer</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Discovery Ultra</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ST5020 Multistainer</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Chromium iX</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Chromium Connect</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>M5 Sprayer</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>TM-Sprayer</t>
         </is>
       </c>
     </row>
@@ -705,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -767,10 +612,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>preparation_matrix</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
@@ -781,26 +630,26 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HBM239.SLWB.784</t>
+          <t>HBM243.BDPL.477</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM239.SLWB.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM243.BDPL.477</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HBM239.SLWB.784</t>
+          <t>HBM243.BDPL.477</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -816,14 +665,14 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM239.SLWB.784</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM243.BDPL.477</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HBM243.BDPL.477</t>
+          <t>HBM342.ZLZF.938</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -835,52 +684,56 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM243.BDPL.477</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM342.ZLZF.938</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HBM243.BDPL.477</t>
+          <t>HBM342.ZLZF.938</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>preparation_matrix</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM243.BDPL.477</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM342.ZLZF.938</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HBM243.BDPL.477</t>
+          <t>HBM478.THJF.229</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM243.BDPL.477</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM478.THJF.229</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HBM243.BDPL.477</t>
+          <t>HBM478.THJF.229</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -896,14 +749,14 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM243.BDPL.477</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM478.THJF.229</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HBM342.ZLZF.938</t>
+          <t>HBM485.PCJS.597</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -915,52 +768,56 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM342.ZLZF.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM485.PCJS.597</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HBM342.ZLZF.938</t>
+          <t>HBM485.PCJS.597</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>preparation_matrix</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM342.ZLZF.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM485.PCJS.597</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HBM342.ZLZF.938</t>
+          <t>HBM525.PDZH.487</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM342.ZLZF.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM525.PDZH.487</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HBM342.ZLZF.938</t>
+          <t>HBM525.PDZH.487</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -976,14 +833,14 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM342.ZLZF.938</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM525.PDZH.487</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HBM478.THJF.229</t>
+          <t>HBM527.XRVT.275</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -995,52 +852,56 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM478.THJF.229</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM527.XRVT.275</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HBM478.THJF.229</t>
+          <t>HBM527.XRVT.275</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>preparation_matrix</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM478.THJF.229</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM527.XRVT.275</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HBM478.THJF.229</t>
+          <t>HBM594.XWXP.395</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM478.THJF.229</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM594.XWXP.395</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBM478.THJF.229</t>
+          <t>HBM594.XWXP.395</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1056,14 +917,14 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM478.THJF.229</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM594.XWXP.395</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM485.PCJS.597</t>
+          <t>HBM624.RNHQ.685</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1075,52 +936,56 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM485.PCJS.597</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM624.RNHQ.685</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HBM485.PCJS.597</t>
+          <t>HBM624.RNHQ.685</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>preparation_matrix</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM485.PCJS.597</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM624.RNHQ.685</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBM485.PCJS.597</t>
+          <t>HBM624.SZDL.673</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM485.PCJS.597</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM624.SZDL.673</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HBM485.PCJS.597</t>
+          <t>HBM624.SZDL.673</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1136,14 +1001,14 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM485.PCJS.597</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM624.SZDL.673</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HBM525.PDZH.487</t>
+          <t>HBM747.JPVZ.396</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1155,52 +1020,56 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM525.PDZH.487</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.JPVZ.396</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM525.PDZH.487</t>
+          <t>HBM747.JPVZ.396</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>preparation_matrix</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM525.PDZH.487</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.JPVZ.396</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM525.PDZH.487</t>
+          <t>HBM964.VLBF.455</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>preparation_instrument_vendor</t>
+          <t>ion_mobility</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM525.PDZH.487</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM964.VLBF.455</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM525.PDZH.487</t>
+          <t>HBM964.VLBF.455</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1216,14 +1085,14 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM525.PDZH.487</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM964.VLBF.455</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM527.XRVT.275</t>
+          <t>HBM973.GHCH.264</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,565 +1104,41 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM527.XRVT.275</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM973.GHCH.264</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM527.XRVT.275</t>
+          <t>HBM973.GHCH.264</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>preparation_matrix</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM527.XRVT.275</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>HBM527.XRVT.275</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM527.XRVT.275</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>HBM527.XRVT.275</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>preparation_matrix</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM527.XRVT.275</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>HBM594.XWXP.395</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM594.XWXP.395</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>HBM594.XWXP.395</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM594.XWXP.395</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>HBM594.XWXP.395</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM594.XWXP.395</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>HBM594.XWXP.395</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>preparation_matrix</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM594.XWXP.395</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>HBM624.RNHQ.685</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.RNHQ.685</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>HBM624.RNHQ.685</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.RNHQ.685</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>HBM624.RNHQ.685</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.RNHQ.685</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>HBM624.RNHQ.685</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>preparation_matrix</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.RNHQ.685</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>HBM624.SZDL.673</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.SZDL.673</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>HBM624.SZDL.673</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.SZDL.673</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>HBM624.SZDL.673</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.SZDL.673</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>HBM624.SZDL.673</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>preparation_matrix</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM624.SZDL.673</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>HBM747.JPVZ.396</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.JPVZ.396</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>HBM747.JPVZ.396</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.JPVZ.396</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>HBM747.JPVZ.396</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.JPVZ.396</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>HBM747.JPVZ.396</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>preparation_matrix</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.JPVZ.396</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>HBM964.VLBF.455</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM964.VLBF.455</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>HBM964.VLBF.455</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM964.VLBF.455</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>HBM964.VLBF.455</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM964.VLBF.455</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>HBM964.VLBF.455</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>preparation_matrix</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM964.VLBF.455</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>HBM973.GHCH.264</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM973.GHCH.264</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>HBM973.GHCH.264</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>preparation_instrument_model</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM973.GHCH.264</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>HBM973.GHCH.264</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>preparation_instrument_vendor</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM973.GHCH.264</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>HBM973.GHCH.264</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>preparation_matrix</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Not applicable</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM973.GHCH.264</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E53"/>
-  <dataValidations count="4">
-    <dataValidation sqref="D2 D6 D10 D14 D18 D22 D26 D30 D34 D38 D42 D46 D50" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E27"/>
+  <dataValidations count="2">
+    <dataValidation sqref="D2 D4 D6 D8 D10 D12 D14 D16 D18 D20 D22 D24 D26" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$6</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D7 D11 D15 D19 D23 D27 D31 D35 D39 D43 D47 D51" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$18</formula1>
-    </dataValidation>
-    <dataValidation sqref="D4 D8 D12 D16 D20 D24 D28 D32 D36 D40 D44 D48 D52" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$9</formula1>
-    </dataValidation>
-    <dataValidation sqref="D5 D9 D13 D17 D21 D25 D29 D33 D37 D41 D45 D49 D53" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$8</formula1>
+    <dataValidation sqref="D3 D5 D7 D9 D11 D13 D15 D17 D19 D21 D23 D25 D27" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$B$1:$B$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2308,7 +1653,7 @@
   <autoFilter ref="A1:D27"/>
   <dataValidations count="1">
     <dataValidation sqref="C2 C4 C6 C8 C10 C12 C14 C16 C18 C20 C22 C24 C26" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$E$1:$E$5</formula1>
+      <formula1>_validation_data!$C$1:$C$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
